--- a/export/assembly/max3421e-rpi-uhat_bom.xlsx
+++ b/export/assembly/max3421e-rpi-uhat_bom.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
   <si>
     <t xml:space="preserve">max3421e-rpi-uhat BOM</t>
   </si>
@@ -137,22 +137,28 @@
     <t xml:space="preserve">Y1</t>
   </si>
   <si>
+    <t xml:space="preserve">JWT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF4012M00012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRYSTAL 12MHZ MAX.1000 PPM, GND PIN 2+4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3225 4PIN 3.2x2.5MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C7,C5,C4</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANY</t>
   </si>
   <si>
     <t xml:space="preserve">TBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRYSTAL 12MHZ MAX.1000 PPM, GND PIN 2+4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3225 4PIN 3.2x2.5MM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C7,C5,C4</t>
   </si>
   <si>
     <t xml:space="preserve">CAP CER 0.1UF MIN.10V X7R</t>
@@ -574,9 +580,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>666000</xdr:colOff>
+      <xdr:colOff>665640</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
+      <xdr:rowOff>155880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -590,7 +596,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9360" y="209520"/>
-          <a:ext cx="1376640" cy="375480"/>
+          <a:ext cx="1376280" cy="375120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -613,7 +619,7 @@
   <dimension ref="A2:Q38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -680,7 +686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="n">
         <v>1</v>
       </c>
@@ -690,16 +696,16 @@
       <c r="C7" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="0" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="10" t="s">
@@ -715,19 +721,19 @@
         <v>16</v>
       </c>
       <c r="C8" s="9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>15</v>
@@ -739,22 +745,22 @@
         <v>3</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>20</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>15</v>
@@ -766,22 +772,22 @@
         <v>4</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>15</v>
@@ -793,22 +799,22 @@
         <v>5</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" s="9" t="n">
         <v>2</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>15</v>
@@ -820,22 +826,22 @@
         <v>6</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" s="9" t="n">
         <v>2</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>15</v>
@@ -847,22 +853,22 @@
         <v>7</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>15</v>
@@ -874,22 +880,22 @@
         <v>8</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C14" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>15</v>
@@ -901,22 +907,22 @@
         <v>9</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C15" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>15</v>
@@ -928,22 +934,22 @@
         <v>10</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>15</v>
@@ -955,22 +961,22 @@
         <v>11</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C17" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>15</v>
